--- a/AugerLogs/DB24/DB24_metadata.xlsx
+++ b/AugerLogs/DB24/DB24_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MarkLundineSurface\CarolinaBaySedimentology\AugerLogs\DB24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1E72F99-106A-4BF2-9BD7-14357BE25F82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49E9A3A-C49B-448E-885F-FEAD182CA4C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13192" yWindow="1980" windowWidth="13838" windowHeight="10523" xr2:uid="{36E117B9-AC77-4599-A17E-5DC2F0538652}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{36E117B9-AC77-4599-A17E-5DC2F0538652}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>sample</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>DB24_6</t>
+  </si>
+  <si>
+    <t>DB24_4</t>
   </si>
 </sst>
 </file>
@@ -421,7 +424,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -495,7 +498,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>74</v>
